--- a/2_Data_Extraction/2_1_CHN_Journal_Code/Journal_special_population_translation.xlsx
+++ b/2_Data_Extraction/2_1_CHN_Journal_Code/Journal_special_population_translation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="10500"/>
+    <workbookView windowWidth="23040" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="Translated_Data" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="489">
   <si>
     <t>Target_Population_English</t>
   </si>
@@ -1361,19 +1361,19 @@
     <t>青年人</t>
   </si>
   <si>
+    <t>Young Normal and Deaf Children</t>
+  </si>
+  <si>
+    <t>低龄正常儿童和聋童</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>年轻男同性恋者</t>
+  </si>
+  <si>
     <t>Young Gay Men</t>
-  </si>
-  <si>
-    <t>年轻男同性恋者</t>
-  </si>
-  <si>
-    <t>Young Normal and Deaf Children</t>
-  </si>
-  <si>
-    <t>低龄正常儿童和聋童</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Adolescents</t>
@@ -1509,7 +1509,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1520,13 +1520,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1994,28 +1987,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2024,118 +2020,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2490,10 +2483,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C225"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -3622,7 +3615,7 @@
         <v>202</v>
       </c>
       <c r="C102">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4964,17 +4957,6 @@
         <v>444</v>
       </c>
       <c r="C224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" t="s">
-        <v>445</v>
-      </c>
-      <c r="B225" t="s">
-        <v>446</v>
-      </c>
-      <c r="C225">
         <v>1</v>
       </c>
     </row>
@@ -5275,7 +5257,7 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5288,10 +5270,10 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B37" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5347,7 +5329,7 @@
         <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5355,7 +5337,7 @@
         <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5363,7 +5345,7 @@
         <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5603,7 +5585,7 @@
         <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5843,7 +5825,7 @@
         <v>36</v>
       </c>
       <c r="B106" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -5888,10 +5870,10 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B112" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -6075,7 +6057,7 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -6083,7 +6065,7 @@
         <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -6091,7 +6073,7 @@
         <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -6099,7 +6081,7 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -6107,7 +6089,7 @@
         <v>18</v>
       </c>
       <c r="B139" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -6115,7 +6097,7 @@
         <v>16</v>
       </c>
       <c r="B140" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -6123,7 +6105,7 @@
         <v>14</v>
       </c>
       <c r="B141" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -6131,7 +6113,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -6211,7 +6193,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -6491,7 +6473,7 @@
         <v>26</v>
       </c>
       <c r="B187" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -6611,7 +6593,7 @@
         <v>24</v>
       </c>
       <c r="B202" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="203" spans="1:2">
